--- a/log/data_5o.xlsx
+++ b/log/data_5o.xlsx
@@ -491,28 +491,32 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>b5,b3,b4,b2,b1</t>
+        </is>
+      </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.0302011</t>
+          <t>0.0178469</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.000403</t>
+          <t>0.000464</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>4.66542</t>
+          <t>0.032501</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -522,12 +526,12 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>4.71398</t>
+          <t>0.069922</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0.000685</t>
+          <t>0.000182</t>
         </is>
       </c>
     </row>
@@ -549,7 +553,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -559,17 +563,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.036866</t>
+          <t>0.0179578</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.000434</t>
+          <t>0.000423</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>6.23779</t>
+          <t>0.033044</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -579,12 +583,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>6.29469</t>
+          <t>0.069168</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0.000173</t>
+          <t>0.00018</t>
         </is>
       </c>
     </row>
@@ -616,17 +620,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.0350011</t>
+          <t>0.0181788</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.00046</t>
+          <t>0.000431</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>5.59119</t>
+          <t>0.026762</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -636,12 +640,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>5.64665</t>
+          <t>0.063441</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0.000218</t>
+          <t>0.000195</t>
         </is>
       </c>
     </row>
@@ -673,7 +677,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.0335161</t>
+          <t>0.0186098</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -683,7 +687,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>5.5623</t>
+          <t>0.0371</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -693,7 +697,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>5.61625</t>
+          <t>0.074016</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -720,7 +724,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -730,17 +734,17 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.036158</t>
+          <t>0.0178409</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.000439</t>
+          <t>0.000441</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>5.97583</t>
+          <t>0.01079</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -750,12 +754,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>6.03481</t>
+          <t>0.049527</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>0.00016</t>
+          <t>0.000215</t>
         </is>
       </c>
     </row>
@@ -777,7 +781,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -787,17 +791,17 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.0311911</t>
+          <t>0.0184738</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.000437</t>
+          <t>0.000421</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>5.26351</t>
+          <t>0.023981</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -807,12 +811,12 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>5.31524</t>
+          <t>0.061476</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0.000179</t>
+          <t>0.000185</t>
         </is>
       </c>
     </row>
@@ -844,17 +848,17 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.0375562</t>
+          <t>0.0181988</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.000443</t>
+          <t>0.000431</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>6.18174</t>
+          <t>0.028386</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -864,12 +868,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>6.2407</t>
+          <t>0.065224</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>0.000208</t>
+          <t>0.000185</t>
         </is>
       </c>
     </row>
@@ -901,17 +905,17 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.037937</t>
+          <t>0.0193608</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.000465</t>
+          <t>0.000486</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>5.76969</t>
+          <t>0.03755</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -921,12 +925,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>5.82626</t>
+          <t>0.073465</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>0.000154</t>
+          <t>0.000157</t>
         </is>
       </c>
     </row>
@@ -954,17 +958,17 @@
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.0323042</t>
+          <t>0.0167259</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.000412</t>
+          <t>0.000402</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>5.79362</t>
+          <t>0.03139</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -974,12 +978,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>5.84365</t>
+          <t>0.063727</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>0.000386</t>
+          <t>0.000338</t>
         </is>
       </c>
     </row>
@@ -1011,17 +1015,17 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.0380311</t>
+          <t>0.0203258</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.000464</t>
+          <t>0.000451</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>6.33834</t>
+          <t>0.013557</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1031,12 +1035,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>6.39792</t>
+          <t>0.053383</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>0.000207</t>
+          <t>0.000202</t>
         </is>
       </c>
     </row>
@@ -1068,17 +1072,17 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.0363582</t>
+          <t>0.0193619</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.00049</t>
+          <t>0.000479</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>5.7407</t>
+          <t>0.031333</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1088,12 +1092,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>5.79664</t>
+          <t>0.06794</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>0.000206</t>
+          <t>0.000175</t>
         </is>
       </c>
     </row>
@@ -1125,17 +1129,17 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.0372461</t>
+          <t>0.0182188</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.000443</t>
+          <t>0.000452</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>6.07926</t>
+          <t>0.046197</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1145,12 +1149,12 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>6.13794</t>
+          <t>0.083114</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>0.000189</t>
+          <t>0.00018</t>
         </is>
       </c>
     </row>
@@ -1182,17 +1186,17 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0.0378451</t>
+          <t>0.0177759</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.00044</t>
+          <t>0.000428</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>6.30544</t>
+          <t>0.046187</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1202,12 +1206,12 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>6.36542</t>
+          <t>0.083507</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>0.000215</t>
+          <t>0.000181</t>
         </is>
       </c>
     </row>
@@ -1229,7 +1233,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1239,17 +1243,17 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0.0364361</t>
+          <t>0.0183908</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.000444</t>
+          <t>0.000416</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>5.56446</t>
+          <t>0.033353</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1259,12 +1263,12 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>5.62209</t>
+          <t>0.070921</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>0.000178</t>
+          <t>0.000195</t>
         </is>
       </c>
     </row>
@@ -1281,28 +1285,32 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr"/>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>b5,b3,b4,b2,b1</t>
+        </is>
+      </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0.0310831</t>
+          <t>0.0183348</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.000441</t>
+          <t>0.000469</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>4.97552</t>
+          <t>0.01209</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1312,12 +1320,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>5.0246</t>
+          <t>0.049412</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>0.000653</t>
+          <t>0.0002</t>
         </is>
       </c>
     </row>
@@ -1339,7 +1347,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1349,17 +1357,17 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0.029286</t>
+          <t>0.0174949</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.00043</t>
+          <t>0.000442</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>3.68959</t>
+          <t>0.028442</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1369,12 +1377,12 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>3.74027</t>
+          <t>0.065904</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>0.00016</t>
+          <t>0.000171</t>
         </is>
       </c>
     </row>
@@ -1406,17 +1414,17 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0.0339101</t>
+          <t>0.0189188</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.000462</t>
+          <t>0.000455</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>4.98818</t>
+          <t>0.03731</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1426,12 +1434,12 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>5.04186</t>
+          <t>0.074048</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>0.000168</t>
+          <t>0.000161</t>
         </is>
       </c>
     </row>
@@ -1453,7 +1461,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1463,17 +1471,17 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0.0384642</t>
+          <t>0.0186188</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.000451</t>
+          <t>0.000419</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>6.07954</t>
+          <t>0.031443</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1483,12 +1491,12 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>6.13685</t>
+          <t>0.066714</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>0.000173</t>
+          <t>0.000176</t>
         </is>
       </c>
     </row>
@@ -1516,17 +1524,17 @@
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0.025545</t>
+          <t>0.0168509</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.000417</t>
+          <t>0.000413</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2.95905</t>
+          <t>0.026054</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1536,12 +1544,12 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>3.00234</t>
+          <t>0.058965</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>0.00065</t>
+          <t>0.000351</t>
         </is>
       </c>
     </row>
@@ -1563,7 +1571,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1573,17 +1581,17 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0.0336292</t>
+          <t>0.0186948</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.00047</t>
+          <t>0.000458</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>5.08829</t>
+          <t>0.061152</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1593,12 +1601,12 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>5.14247</t>
+          <t>0.098497</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>0.000169</t>
+          <t>0.0002</t>
         </is>
       </c>
     </row>
@@ -1630,17 +1638,17 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0.0380591</t>
+          <t>0.0181768</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.000452</t>
+          <t>0.000422</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>6.55474</t>
+          <t>0.030936</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1650,12 +1658,12 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>6.61385</t>
+          <t>0.067292</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>0.000197</t>
+          <t>0.000183</t>
         </is>
       </c>
     </row>
@@ -1677,7 +1685,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1687,17 +1695,17 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0.0364721</t>
+          <t>0.0185498</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.000455</t>
+          <t>0.000446</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>6.09984</t>
+          <t>0.029347</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1707,12 +1715,12 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>6.15519</t>
+          <t>0.064485</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>0.000169</t>
+          <t>0.000183</t>
         </is>
       </c>
     </row>
@@ -1734,7 +1742,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1744,17 +1752,17 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0.0329671</t>
+          <t>0.0184658</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.000427</t>
+          <t>0.000412</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>5.64235</t>
+          <t>0.034129</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1764,12 +1772,12 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>5.69444</t>
+          <t>0.069674</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>0.000174</t>
+          <t>0.000204</t>
         </is>
       </c>
     </row>
@@ -1786,28 +1794,32 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr"/>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>b5,b3,b4,b2,b1</t>
+        </is>
+      </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0.0324441</t>
+          <t>0.0185678</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.00045</t>
+          <t>0.000475</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>5.06622</t>
+          <t>0.019652</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1817,12 +1829,12 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>5.11674</t>
+          <t>0.057003</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>0.000659</t>
+          <t>0.000214</t>
         </is>
       </c>
     </row>
@@ -1844,7 +1856,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1854,17 +1866,17 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0.0350321</t>
+          <t>0.0187708</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.000464</t>
+          <t>0.000443</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>6.16591</t>
+          <t>0.029156</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1874,12 +1886,12 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>6.21921</t>
+          <t>0.064525</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>0.000168</t>
+          <t>0.000235</t>
         </is>
       </c>
     </row>
@@ -1901,7 +1913,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1911,17 +1923,17 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0.0346731</t>
+          <t>0.0179939</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.000456</t>
+          <t>0.000489</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>5.74744</t>
+          <t>0.074223</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1931,12 +1943,12 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>5.803</t>
+          <t>0.110994</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>0.000177</t>
+          <t>0.000205</t>
         </is>
       </c>
     </row>
@@ -1964,17 +1976,17 @@
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0.0380431</t>
+          <t>0.0181229</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.000456</t>
+          <t>0.000465</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>5.80622</t>
+          <t>0.021848</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1984,12 +1996,12 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>5.86298</t>
+          <t>0.056422</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>0.00074</t>
+          <t>0.000608</t>
         </is>
       </c>
     </row>
@@ -2021,17 +2033,17 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0.0335641</t>
+          <t>0.0177499</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.000454</t>
+          <t>0.000437</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>4.44914</t>
+          <t>0.032164</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2041,12 +2053,12 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>4.5039</t>
+          <t>0.068798</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>0.000224</t>
+          <t>0.000185</t>
         </is>
       </c>
     </row>
@@ -2068,7 +2080,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2078,17 +2090,17 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0.0336381</t>
+          <t>0.0181328</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.000428</t>
+          <t>0.000437</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>5.54347</t>
+          <t>0.021315</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2098,12 +2110,12 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>5.59574</t>
+          <t>0.056739</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>0.000171</t>
+          <t>0.000203</t>
         </is>
       </c>
     </row>
@@ -2135,17 +2147,17 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0.0338822</t>
+          <t>0.0188548</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0.000486</t>
+          <t>0.000443</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>5.29965</t>
+          <t>0.021624</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2155,12 +2167,12 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>5.35435</t>
+          <t>0.059192</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>0.000226</t>
+          <t>0.000174</t>
         </is>
       </c>
     </row>
@@ -2182,7 +2194,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2192,17 +2204,17 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0.0333811</t>
+          <t>0.0186708</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0.000474</t>
+          <t>0.000491</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>5.00757</t>
+          <t>0.029003</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2212,12 +2224,12 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>5.06239</t>
+          <t>0.067199</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>0.000164</t>
+          <t>0.000176</t>
         </is>
       </c>
     </row>
@@ -2234,7 +2246,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2242,24 +2254,20 @@
           <t>0</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>b5,b3,b4,b2,b1</t>
-        </is>
-      </c>
+      <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0.026243</t>
+          <t>0.0145729</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0.000426</t>
+          <t>0.000339</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>3.06723</t>
+          <t>0.006326</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2269,12 +2277,12 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>3.11465</t>
+          <t>0.033786</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>0.000182</t>
+          <t>0.000506</t>
         </is>
       </c>
     </row>
@@ -2306,17 +2314,17 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0.0361681</t>
+          <t>0.0184868</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>0.000438</t>
+          <t>0.000435</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>6.36636</t>
+          <t>0.023778</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2326,12 +2334,12 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>6.42351</t>
+          <t>0.061219</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>0.000214</t>
+          <t>0.000181</t>
         </is>
       </c>
     </row>
@@ -2363,17 +2371,17 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0.0305162</t>
+          <t>0.0180438</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0.000438</t>
+          <t>0.000433</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>4.57366</t>
+          <t>0.025291</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2383,12 +2391,12 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>4.62301</t>
+          <t>0.060168</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>0.000234</t>
+          <t>0.000176</t>
         </is>
       </c>
     </row>
@@ -2410,7 +2418,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2420,17 +2428,17 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0.0334971</t>
+          <t>0.0182818</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>0.000456</t>
+          <t>0.000444</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>4.93118</t>
+          <t>0.033857</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2440,12 +2448,12 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>4.98532</t>
+          <t>0.070985</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>0.000178</t>
+          <t>0.000207</t>
         </is>
       </c>
     </row>
@@ -2477,17 +2485,17 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0.0364372</t>
+          <t>0.0185808</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>0.000493</t>
+          <t>0.000435</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>5.91466</t>
+          <t>0.017562</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2497,12 +2505,12 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>5.96985</t>
+          <t>0.052616</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>0.000206</t>
+          <t>0.000159</t>
         </is>
       </c>
     </row>
@@ -2534,17 +2542,17 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>0.0306852</t>
+          <t>0.0175238</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>0.000439</t>
+          <t>0.000452</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>4.48306</t>
+          <t>0.02147</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2554,12 +2562,12 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>4.53505</t>
+          <t>0.058595</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>0.00019</t>
+          <t>0.000165</t>
         </is>
       </c>
     </row>
@@ -2591,17 +2599,17 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>0.0394311</t>
+          <t>0.0232448</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>0.000452</t>
+          <t>0.000466</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>6.11195</t>
+          <t>0.016426</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2611,12 +2619,12 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>6.17213</t>
+          <t>0.060236</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>0.000206</t>
+          <t>0.000199</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2646,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2648,17 +2656,17 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>0.0322861</t>
+          <t>0.0180879</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>0.000466</t>
+          <t>0.00042</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>5.16867</t>
+          <t>0.039018</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2668,12 +2676,12 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>5.22208</t>
+          <t>0.07626</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>0.000192</t>
+          <t>0.000177</t>
         </is>
       </c>
     </row>
@@ -2695,7 +2703,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2705,17 +2713,17 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0.0357161</t>
+          <t>0.0180239</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>0.000469</t>
+          <t>0.000463</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>6.01613</t>
+          <t>0.030054</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2725,12 +2733,12 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>6.0727</t>
+          <t>0.06659</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>0.000168</t>
+          <t>0.000178</t>
         </is>
       </c>
     </row>
@@ -2752,7 +2760,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2762,17 +2770,17 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0.0346861</t>
+          <t>0.0189618</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>0.000471</t>
+          <t>0.000475</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>5.09756</t>
+          <t>0.060177</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2782,12 +2790,12 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>5.15242</t>
+          <t>0.097671</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>0.000168</t>
+          <t>0.00018</t>
         </is>
       </c>
     </row>
@@ -2819,17 +2827,17 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0.032124</t>
+          <t>0.0184488</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>0.000449</t>
+          <t>0.000486</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>5.38644</t>
+          <t>0.02339</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -2839,12 +2847,12 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>5.43844</t>
+          <t>0.05999</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>0.000207</t>
+          <t>0.000167</t>
         </is>
       </c>
     </row>
@@ -2866,7 +2874,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2876,17 +2884,17 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>0.0380861</t>
+          <t>0.0181438</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>0.000455</t>
+          <t>0.000456</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>5.90285</t>
+          <t>0.032067</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -2896,12 +2904,12 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>5.96184</t>
+          <t>0.068404</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>0.000164</t>
+          <t>0.000176</t>
         </is>
       </c>
     </row>
@@ -2933,17 +2941,17 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0.0336681</t>
+          <t>0.0185738</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>0.000448</t>
+          <t>0.000414</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>5.2273</t>
+          <t>0.026069</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -2953,12 +2961,12 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>5.28076</t>
+          <t>0.062607</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>0.00021</t>
+          <t>0.000174</t>
         </is>
       </c>
     </row>
@@ -2990,17 +2998,17 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>0.0338731</t>
+          <t>0.0179339</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>0.000435</t>
+          <t>0.000423</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>5.79904</t>
+          <t>0.041621</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3010,12 +3018,12 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>5.85358</t>
+          <t>0.078193</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>0.000184</t>
+          <t>0.000169</t>
         </is>
       </c>
     </row>
@@ -3037,7 +3045,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -3047,17 +3055,17 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>0.0387971</t>
+          <t>0.0185258</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>0.000453</t>
+          <t>0.000423</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>6.68069</t>
+          <t>0.026244</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3067,12 +3075,12 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>6.73853</t>
+          <t>0.0615</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>0.000171</t>
+          <t>0.000183</t>
         </is>
       </c>
     </row>
@@ -3104,17 +3112,17 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>0.0328431</t>
+          <t>0.0186888</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>0.000456</t>
+          <t>0.000443</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>4.72852</t>
+          <t>0.025759</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3124,12 +3132,12 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>4.78228</t>
+          <t>0.063435</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>0.000246</t>
+          <t>0.000181</t>
         </is>
       </c>
     </row>
@@ -3161,17 +3169,17 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>0.0344591</t>
+          <t>0.0180688</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>0.000438</t>
+          <t>0.000434</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>5.78013</t>
+          <t>0.030146</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3181,12 +3189,12 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>5.836</t>
+          <t>0.067073</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>0.000214</t>
+          <t>0.000177</t>
         </is>
       </c>
     </row>
@@ -3208,7 +3216,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3218,17 +3226,17 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>0.0331341</t>
+          <t>0.0187278</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>0.000475</t>
+          <t>0.000456</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>4.92138</t>
+          <t>0.019062</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3238,12 +3246,12 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>4.97548</t>
+          <t>0.057117</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>0.000173</t>
+          <t>0.000188</t>
         </is>
       </c>
     </row>
@@ -3265,7 +3273,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3275,17 +3283,17 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>0.0333762</t>
+          <t>0.0186198</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>0.000462</t>
+          <t>0.000436</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>5.79319</t>
+          <t>0.022555</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3295,12 +3303,12 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>5.84691</t>
+          <t>0.059247</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>0.000176</t>
+          <t>0.000184</t>
         </is>
       </c>
     </row>
@@ -3332,17 +3340,17 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>0.0374672</t>
+          <t>0.0208438</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>0.000474</t>
+          <t>0.000431</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>5.9435</t>
+          <t>0.021681</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -3352,12 +3360,12 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>5.9996</t>
+          <t>0.059955</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>0.000216</t>
+          <t>0.000162</t>
         </is>
       </c>
     </row>
@@ -3389,17 +3397,17 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>0.0362831</t>
+          <t>0.0184028</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>0.000441</t>
+          <t>0.000443</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>6.34906</t>
+          <t>0.030686</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -3409,12 +3417,12 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>6.40557</t>
+          <t>0.066912</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>0.000212</t>
+          <t>0.000175</t>
         </is>
       </c>
     </row>
@@ -3436,7 +3444,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3446,17 +3454,17 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>0.0366902</t>
+          <t>0.0179978</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>0.00047</t>
+          <t>0.000434</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>5.93904</t>
+          <t>0.025306</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -3466,12 +3474,12 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>5.99644</t>
+          <t>0.061505</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>0.000166</t>
+          <t>0.00017</t>
         </is>
       </c>
     </row>
@@ -3488,28 +3496,32 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr"/>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>b5,b3,b4,b2,b1</t>
+        </is>
+      </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>0.0305151</t>
+          <t>0.0178999</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>0.000431</t>
+          <t>0.000456</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>4.32809</t>
+          <t>0.016526</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -3519,12 +3531,12 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>4.37646</t>
+          <t>0.053345</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>0.000385</t>
+          <t>0.000182</t>
         </is>
       </c>
     </row>
@@ -3546,7 +3558,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3556,17 +3568,17 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>0.0321971</t>
+          <t>0.0181598</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>0.000446</t>
+          <t>0.000444</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>5.05316</t>
+          <t>0.021763</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -3576,12 +3588,12 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>5.10578</t>
+          <t>0.058388</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>0.000167</t>
+          <t>0.000177</t>
         </is>
       </c>
     </row>
@@ -3603,7 +3615,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3613,17 +3625,17 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>0.0374101</t>
+          <t>0.0186898</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>0.00047</t>
+          <t>0.000451</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>5.91889</t>
+          <t>0.030865</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -3633,12 +3645,12 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>5.97602</t>
+          <t>0.06711</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>0.000167</t>
+          <t>0.000172</t>
         </is>
       </c>
     </row>
@@ -3655,28 +3667,32 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr"/>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>b5,b3,b4,b2,b1</t>
+        </is>
+      </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>0.0323072</t>
+          <t>0.0182438</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>0.000424</t>
+          <t>0.000438</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>5.05373</t>
+          <t>0.016438</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -3686,12 +3702,12 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>5.10381</t>
+          <t>0.053698</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>0.000701</t>
+          <t>0.000222</t>
         </is>
       </c>
     </row>
@@ -3713,7 +3729,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3723,17 +3739,17 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>0.0391511</t>
+          <t>0.0188158</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>0.000479</t>
+          <t>0.000484</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>5.904</t>
+          <t>0.029208</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -3743,12 +3759,12 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>5.96547</t>
+          <t>0.068609</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>0.000156</t>
+          <t>0.000212</t>
         </is>
       </c>
     </row>
@@ -3770,7 +3786,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3780,17 +3796,17 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>0.0323851</t>
+          <t>0.0175429</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>0.000437</t>
+          <t>0.000425</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>4.28987</t>
+          <t>0.015125</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -3800,12 +3816,12 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>4.34324</t>
+          <t>0.052139</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>0.000158</t>
+          <t>0.000204</t>
         </is>
       </c>
     </row>
@@ -3827,7 +3843,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3837,17 +3853,17 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>0.0308442</t>
+          <t>0.0179938</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>0.000427</t>
+          <t>0.000471</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>4.10225</t>
+          <t>0.062731</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -3857,12 +3873,12 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>4.15456</t>
+          <t>0.100188</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>0.000159</t>
+          <t>0.000191</t>
         </is>
       </c>
     </row>
@@ -3894,17 +3910,17 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>0.035579</t>
+          <t>0.0188048</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>0.000451</t>
+          <t>0.000448</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>5.99733</t>
+          <t>0.03008</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -3914,12 +3930,12 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>6.05362</t>
+          <t>0.067339</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>0.000203</t>
+          <t>0.000172</t>
         </is>
       </c>
     </row>
@@ -3951,17 +3967,17 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>0.0299221</t>
+          <t>0.0179338</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>0.000419</t>
+          <t>0.000434</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>3.82976</t>
+          <t>0.022823</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -3971,12 +3987,12 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>3.8795</t>
+          <t>0.059251</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>0.000196</t>
+          <t>0.00017</t>
         </is>
       </c>
     </row>
@@ -3998,7 +4014,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -4008,17 +4024,17 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>0.0376321</t>
+          <t>0.0182359</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>0.000472</t>
+          <t>0.000442</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>6.67046</t>
+          <t>0.026771</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -4028,12 +4044,12 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>6.7296</t>
+          <t>0.063829</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>0.000175</t>
+          <t>0.000192</t>
         </is>
       </c>
     </row>
@@ -4065,17 +4081,17 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>0.0354591</t>
+          <t>0.0189318</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>0.00048</t>
+          <t>0.000475</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>5.26956</t>
+          <t>0.015425</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -4085,12 +4101,12 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>5.32555</t>
+          <t>0.053279</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>0.000204</t>
+          <t>0.000168</t>
         </is>
       </c>
     </row>
@@ -4112,7 +4128,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -4122,17 +4138,17 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>0.0347031</t>
+          <t>0.0188698</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>0.000486</t>
+          <t>0.000468</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>5.14567</t>
+          <t>0.024053</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -4142,12 +4158,12 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>5.20095</t>
+          <t>0.061856</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>0.000166</t>
+          <t>0.000208</t>
         </is>
       </c>
     </row>
@@ -4179,17 +4195,17 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>0.037985</t>
+          <t>0.0179139</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>0.000463</t>
+          <t>0.000461</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>5.70643</t>
+          <t>0.045023</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -4199,12 +4215,12 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>5.76678</t>
+          <t>0.081967</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>0.000212</t>
+          <t>0.000198</t>
         </is>
       </c>
     </row>
@@ -4236,17 +4252,17 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>0.0411239</t>
+          <t>0.0175539</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>0.000484</t>
+          <t>0.000454</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>5.88709</t>
+          <t>0.038072</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -4256,12 +4272,12 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>5.95208</t>
+          <t>0.076068</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>0.000184</t>
+          <t>0.000179</t>
         </is>
       </c>
     </row>
@@ -4283,7 +4299,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -4293,17 +4309,17 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>0.040391</t>
+          <t>0.0188998</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>0.0005</t>
+          <t>0.000479</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>6.01365</t>
+          <t>0.02257</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -4313,12 +4329,12 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>6.07545</t>
+          <t>0.059936</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>0.000168</t>
+          <t>0.00017</t>
         </is>
       </c>
     </row>
@@ -4346,17 +4362,17 @@
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr">
         <is>
-          <t>0.0353362</t>
+          <t>0.0178378</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>0.000469</t>
+          <t>0.00041</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>6.06597</t>
+          <t>0.022623</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -4366,12 +4382,12 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>6.11859</t>
+          <t>0.055101</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>0.000626</t>
+          <t>0.000518</t>
         </is>
       </c>
     </row>
@@ -4403,17 +4419,17 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>0.039317</t>
+          <t>0.0181798</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>0.000452</t>
+          <t>0.000444</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>6.92526</t>
+          <t>0.052756</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -4423,12 +4439,12 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>6.98679</t>
+          <t>0.089898</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>0.000225</t>
+          <t>0.000198</t>
         </is>
       </c>
     </row>
@@ -4450,7 +4466,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -4460,17 +4476,17 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>0.0361891</t>
+          <t>0.0193608</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>0.000529</t>
+          <t>0.000465</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>5.6818</t>
+          <t>0.023791</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -4480,12 +4496,12 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>5.73747</t>
+          <t>0.059805</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>0.000175</t>
+          <t>0.000173</t>
         </is>
       </c>
     </row>
@@ -4517,17 +4533,17 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>0.0363831</t>
+          <t>0.0190808</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>0.000486</t>
+          <t>0.000462</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>5.74677</t>
+          <t>0.027753</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -4537,12 +4553,12 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>5.80317</t>
+          <t>0.064296</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>0.000253</t>
+          <t>0.000182</t>
         </is>
       </c>
     </row>
@@ -4574,17 +4590,17 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>0.039441</t>
+          <t>0.0180319</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>0.000539</t>
+          <t>0.000452</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>6.31833</t>
+          <t>0.021809</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -4594,12 +4610,12 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>6.38232</t>
+          <t>0.060349</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>0.00021</t>
+          <t>0.000198</t>
         </is>
       </c>
     </row>
@@ -4631,17 +4647,17 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>0.0379631</t>
+          <t>0.0184819</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>0.000478</t>
+          <t>0.000474</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>5.88867</t>
+          <t>0.014235</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -4651,12 +4667,12 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>5.94818</t>
+          <t>0.051241</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>0.000205</t>
+          <t>0.000169</t>
         </is>
       </c>
     </row>
@@ -4673,28 +4689,32 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr"/>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>b5,b3,b4,b2,b1</t>
+        </is>
+      </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>0.0295611</t>
+          <t>0.0184778</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>0.000453</t>
+          <t>0.000457</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>3.46649</t>
+          <t>0.030669</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -4704,12 +4724,12 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>3.51354</t>
+          <t>0.067756</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>0.000508</t>
+          <t>0.000226</t>
         </is>
       </c>
     </row>
@@ -4741,17 +4761,17 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>0.0367642</t>
+          <t>0.0187488</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>0.000547</t>
+          <t>0.000464</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>5.41204</t>
+          <t>0.013844</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -4761,12 +4781,12 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>5.47128</t>
+          <t>0.05254</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>0.000244</t>
+          <t>0.000168</t>
         </is>
       </c>
     </row>
@@ -4788,7 +4808,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -4798,17 +4818,17 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>0.041381</t>
+          <t>0.0184878</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>0.000451</t>
+          <t>0.000449</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>7.01813</t>
+          <t>0.031649</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -4818,12 +4838,12 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>7.08102</t>
+          <t>0.06905</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>0.000169</t>
+          <t>0.000201</t>
         </is>
       </c>
     </row>
@@ -4845,7 +4865,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -4855,17 +4875,17 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>0.0377971</t>
+          <t>0.0183538</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>0.000466</t>
+          <t>0.000442</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>6.11185</t>
+          <t>0.023297</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -4875,12 +4895,12 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>6.17037</t>
+          <t>0.059891</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>0.000167</t>
+          <t>0.000166</t>
         </is>
       </c>
     </row>
@@ -4902,7 +4922,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4912,17 +4932,17 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>0.0363271</t>
+          <t>0.0204119</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>0.000493</t>
+          <t>0.000477</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>5.28059</t>
+          <t>0.019393</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -4932,12 +4952,12 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>5.3362</t>
+          <t>0.057482</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>0.000181</t>
+          <t>0.000187</t>
         </is>
       </c>
     </row>
@@ -4969,17 +4989,17 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>0.040064</t>
+          <t>0.0188168</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>0.000497</t>
+          <t>0.000492</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>5.97115</t>
+          <t>0.017844</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -4989,12 +5009,12 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>6.03241</t>
+          <t>0.055517</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>0.000215</t>
+          <t>0.000172</t>
         </is>
       </c>
     </row>
@@ -5016,7 +5036,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -5026,17 +5046,17 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>0.036734</t>
+          <t>0.0180598</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>0.000467</t>
+          <t>0.000426</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>5.02064</t>
+          <t>0.016478</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -5046,12 +5066,12 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>5.07971</t>
+          <t>0.053809</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>0.00017</t>
+          <t>0.00024</t>
         </is>
       </c>
     </row>
@@ -5083,17 +5103,17 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>0.0365231</t>
+          <t>0.0193548</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>0.000493</t>
+          <t>0.000509</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>5.56881</t>
+          <t>0.045623</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -5103,12 +5123,12 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>5.62493</t>
+          <t>0.082526</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>0.000219</t>
+          <t>0.000194</t>
         </is>
       </c>
     </row>
@@ -5140,17 +5160,17 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>0.0323191</t>
+          <t>0.0191788</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>0.000484</t>
+          <t>0.000515</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>4.75226</t>
+          <t>0.037609</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -5160,12 +5180,12 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>4.80659</t>
+          <t>0.07694</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>0.000199</t>
+          <t>0.000164</t>
         </is>
       </c>
     </row>
@@ -5187,7 +5207,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -5197,17 +5217,17 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>0.035546</t>
+          <t>0.0187778</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>0.000511</t>
+          <t>0.000485</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>5.08175</t>
+          <t>0.024407</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -5217,12 +5237,12 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>5.13905</t>
+          <t>0.062497</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>0.000186</t>
+          <t>0.000188</t>
         </is>
       </c>
     </row>
@@ -5254,17 +5274,17 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>0.0395919</t>
+          <t>0.0176869</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>0.000452</t>
+          <t>0.00044</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>6.44249</t>
+          <t>0.049128</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -5274,12 +5294,12 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>6.50395</t>
+          <t>0.086165</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>0.000179</t>
+          <t>0.000176</t>
         </is>
       </c>
     </row>
@@ -5311,17 +5331,17 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>0.0367509</t>
+          <t>0.0174599</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>0.000524</t>
+          <t>0.000453</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>4.25546</t>
+          <t>0.020282</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -5331,12 +5351,12 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>4.31417</t>
+          <t>0.056333</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>0.000242</t>
+          <t>0.000164</t>
         </is>
       </c>
     </row>
@@ -5358,7 +5378,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -5368,17 +5388,17 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>0.0357151</t>
+          <t>0.0181598</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>0.000455</t>
+          <t>0.000421</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>5.73829</t>
+          <t>0.034164</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -5388,12 +5408,12 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>5.79618</t>
+          <t>0.071562</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>0.000176</t>
+          <t>0.000283</t>
         </is>
       </c>
     </row>
@@ -5415,7 +5435,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -5425,17 +5445,17 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>0.0357691</t>
+          <t>0.0178769</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>0.000483</t>
+          <t>0.000436</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>5.6685</t>
+          <t>0.009159</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -5445,12 +5465,12 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>5.72692</t>
+          <t>0.047673</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>0.000181</t>
+          <t>0.000245</t>
         </is>
       </c>
     </row>
@@ -5482,17 +5502,17 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>0.0348481</t>
+          <t>0.0177499</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>0.000481</t>
+          <t>0.000443</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>5.70143</t>
+          <t>0.019058</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -5502,12 +5522,12 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>5.75854</t>
+          <t>0.056394</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>0.000219</t>
+          <t>0.000229</t>
         </is>
       </c>
     </row>
@@ -5539,17 +5559,17 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>0.039274</t>
+          <t>0.0188549</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>0.000538</t>
+          <t>0.000464</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>5.52119</t>
+          <t>0.036424</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -5559,12 +5579,12 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>5.58216</t>
+          <t>0.073679</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>0.000168</t>
+          <t>0.000164</t>
         </is>
       </c>
     </row>
@@ -5586,7 +5606,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -5596,17 +5616,17 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>0.0319021</t>
+          <t>0.0181149</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>0.000446</t>
+          <t>0.000467</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>4.96977</t>
+          <t>0.04213</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -5616,12 +5636,12 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>5.02274</t>
+          <t>0.079108</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>0.000178</t>
+          <t>0.000204</t>
         </is>
       </c>
     </row>
@@ -5643,7 +5663,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -5653,17 +5673,17 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>0.034249</t>
+          <t>0.0180659</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>0.000432</t>
+          <t>0.000434</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>5.86562</t>
+          <t>0.038749</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -5673,12 +5693,12 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>5.92154</t>
+          <t>0.075623</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>0.000194</t>
+          <t>0.000196</t>
         </is>
       </c>
     </row>
@@ -5695,32 +5715,28 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>b5,b3,b4,b2,b1</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr"/>
       <c r="F94" t="inlineStr">
         <is>
-          <t>0.033678</t>
+          <t>0.0174259</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>0.000515</t>
+          <t>0.00048</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>4.54657</t>
+          <t>0.033031</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -5730,12 +5746,12 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>4.60264</t>
+          <t>0.067279</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>0.000209</t>
+          <t>0.000845</t>
         </is>
       </c>
     </row>
@@ -5757,7 +5773,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -5767,17 +5783,17 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>0.038612</t>
+          <t>0.0180579</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>0.000469</t>
+          <t>0.000436</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>6.2368</t>
+          <t>0.025957</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -5787,12 +5803,12 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>6.29662</t>
+          <t>0.06252</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>0.000161</t>
+          <t>0.000172</t>
         </is>
       </c>
     </row>
@@ -5814,7 +5830,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -5824,17 +5840,17 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>0.0374051</t>
+          <t>0.0178818</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>0.000468</t>
+          <t>0.000443</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>5.97146</t>
+          <t>0.019798</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -5844,12 +5860,12 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>6.02895</t>
+          <t>0.055439</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>0.000173</t>
+          <t>0.000168</t>
         </is>
       </c>
     </row>
@@ -5871,7 +5887,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -5881,17 +5897,17 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>0.0317851</t>
+          <t>0.0179618</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>0.000434</t>
+          <t>0.000464</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>4.73596</t>
+          <t>0.024395</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -5901,12 +5917,12 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>4.7878</t>
+          <t>0.060668</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>0.000164</t>
+          <t>0.000182</t>
         </is>
       </c>
     </row>
@@ -5923,32 +5939,28 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>b5,b3,b4,b2,b1</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr"/>
       <c r="F98" t="inlineStr">
         <is>
-          <t>0.0375691</t>
+          <t>0.0157489</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>0.000427</t>
+          <t>0.000379</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>5.23034</t>
+          <t>0.01473</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -5958,12 +5970,12 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>5.28776</t>
+          <t>0.04231</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>0.000186</t>
+          <t>0.000281</t>
         </is>
       </c>
     </row>
@@ -5995,17 +6007,17 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>0.0332041</t>
+          <t>0.0180358</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>0.000457</t>
+          <t>0.000452</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>5.54028</t>
+          <t>0.020853</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -6015,12 +6027,12 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>5.59366</t>
+          <t>0.057202</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>0.000205</t>
+          <t>0.000186</t>
         </is>
       </c>
     </row>
@@ -6048,17 +6060,17 @@
       <c r="E100" t="inlineStr"/>
       <c r="F100" t="inlineStr">
         <is>
-          <t>0.0353602</t>
+          <t>0.0174878</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>0.000448</t>
+          <t>0.000438</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>5.76302</t>
+          <t>0.04023</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -6068,12 +6080,12 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>5.81605</t>
+          <t>0.073038</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>0.000648</t>
+          <t>0.000435</t>
         </is>
       </c>
     </row>
@@ -6090,32 +6102,28 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>b5,b3,b4,b2,b1</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr"/>
       <c r="F101" t="inlineStr">
         <is>
-          <t>0.0329351</t>
+          <t>0.0151709</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>0.000425</t>
+          <t>0.000403</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>4.51843</t>
+          <t>0.018489</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -6125,12 +6133,12 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>4.57114</t>
+          <t>0.0454</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>0.000177</t>
+          <t>0.000277</t>
         </is>
       </c>
     </row>
